--- a/SpaOnline/EventStorming/Clientes - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Clientes - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E591DA2-F51C-4A47-A33E-F15728F2EA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA23BC-18A4-43BA-9099-81D2C7BB317D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="87">
   <si>
     <t>Descripción</t>
   </si>
@@ -173,24 +173,15 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de los clientes</t>
-  </si>
-  <si>
     <t>CitaReserva</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion del consentimiento</t>
-  </si>
-  <si>
     <t>Si se envía parametros de consulta se deben de ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
   </si>
   <si>
     <t>El usuario debe estar permitido para consultar</t>
   </si>
   <si>
-    <t>Crear Cliente</t>
-  </si>
-  <si>
     <t>Modificar Cliente</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t>Eliminar Cliente</t>
   </si>
   <si>
-    <t>Cliente Creado</t>
-  </si>
-  <si>
     <t>Cliente Eliminado</t>
   </si>
   <si>
@@ -215,9 +203,6 @@
     <t>Cliente Modificado</t>
   </si>
   <si>
-    <t>Comando que se encarga de crear un cliente nuevo, en cada sucursal respectiva</t>
-  </si>
-  <si>
     <t>Pol-cliente-001</t>
   </si>
   <si>
@@ -236,51 +221,21 @@
     <t>Pol-cliente-004</t>
   </si>
   <si>
-    <t xml:space="preserve">Pol-cliente-008: </t>
-  </si>
-  <si>
     <t>Pol-cliente-007</t>
   </si>
   <si>
-    <t xml:space="preserve">Comando que se encarga de Modificar los datos del cliente validando que lo ingresado este correcto  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comando encargado de consultar los clientes que tienen las sucursales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comando encargado de eliminar los clientes por codigo o por id, si este no tiene asociado ninguna reserva </t>
-  </si>
-  <si>
-    <t>No debe existir otro cliente con el mismo id</t>
-  </si>
-  <si>
     <t>Los datos del nuevo cliente deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
   </si>
   <si>
-    <t>No debe existir otro cliente, a excepcion de que sea el mismo cliente que se esta modificando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debe existir el cliente que se esta modificando </t>
-  </si>
-  <si>
-    <t>Que el usuario exista y no tenga reservas asociadas</t>
-  </si>
-  <si>
     <t>Contexto que contiene la informacion de la reserva de las citas según la sucursal y los servicios</t>
   </si>
   <si>
-    <t>clientes</t>
-  </si>
-  <si>
     <t>Genero</t>
   </si>
   <si>
     <t>TipoIdentificacion</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de los genero de los clientes.</t>
-  </si>
-  <si>
     <t>Referenciado</t>
   </si>
   <si>
@@ -311,9 +266,6 @@
     <t>cliente</t>
   </si>
   <si>
-    <t>Debe de exisitir untipo de identificacion a la cual debe estar asociado el cliente</t>
-  </si>
-  <si>
     <t>Consultar Generos</t>
   </si>
   <si>
@@ -327,13 +279,73 @@
   </si>
   <si>
     <t>Genero Consultado</t>
+  </si>
+  <si>
+    <t>Cliente Registrado</t>
+  </si>
+  <si>
+    <t>Cliente registrado</t>
+  </si>
+  <si>
+    <t>registrar Cliente</t>
+  </si>
+  <si>
+    <t>Comando que permite  registrar un nuevo cliente en el spa</t>
+  </si>
+  <si>
+    <t>No debe existir otro cliente con el mismo numero de identificacion</t>
+  </si>
+  <si>
+    <t>Debe de exisitir mas de un cliente con el mismo correo</t>
+  </si>
+  <si>
+    <t>Comando que permite llevar a cabo la edicion de los datos que posee el cliente del spa</t>
+  </si>
+  <si>
+    <t>No debe existir otro cliente con el mismo numero de identificacion, a excepcion de que sea el mismo cliente que se esta modificando</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando encargado de consultar los clientes que tiene el Spa </t>
+  </si>
+  <si>
+    <t>Comando encargado de eliminar la informacion de un cliente</t>
+  </si>
+  <si>
+    <t>Pol-cliente-008</t>
+  </si>
+  <si>
+    <t>Debe existir el cliente que se va a modificar</t>
+  </si>
+  <si>
+    <t>Pol-cliente-009</t>
+  </si>
+  <si>
+    <t>Que el cliente  no tenga reservas activa.</t>
+  </si>
+  <si>
+    <t>debe existir el cliente que se desea eliminar</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion basica de los clientes del spa</t>
+  </si>
+  <si>
+    <t>Clientes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que contiene la informacion de genero del cliente </t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion base de los tipo de identificaion que tienen los clientes o el spa</t>
+  </si>
+  <si>
+    <t>Tipo Identificacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +405,20 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="19">
@@ -505,7 +531,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -755,13 +781,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -815,27 +852,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -849,25 +882,13 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -918,33 +939,113 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1328,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1353,7 +1454,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1369,21 +1470,21 @@
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
@@ -1399,46 +1500,46 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:4" ht="30">
+      <c r="A4" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="77" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>63</v>
+      <c r="D4" s="78" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="76" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>68</v>
+      <c r="D5" s="78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="C6" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1446,6 +1547,11 @@
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A4" location="Cliente!A1" display="Cliente" xr:uid="{142F931D-DA24-4242-81F6-36599B604993}"/>
+    <hyperlink ref="A5" location="Genero!A1" display="Genero" xr:uid="{11CCBED1-C0E1-4562-817D-2404B17A503D}"/>
+    <hyperlink ref="A6" location="TipoIdentificacion!A1" display="TipoIdentificacion" xr:uid="{691FC8A1-5810-4CCF-9E58-80526DB9FFF3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -1454,17 +1560,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.42578125" style="1" customWidth="1"/>
     <col min="5" max="6" width="18.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1484,84 +1590,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="44" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
-        <v>Objeto de dominio que contiene la informacion de los clientes</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+        <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="45" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1571,52 +1677,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="43" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="39"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1629,336 +1735,443 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A7" s="23" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A7" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="65"/>
+      <c r="L7" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A8" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="66" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="67" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A10" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="84" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="49"/>
+      <c r="L10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A11" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M11" s="52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A12" s="30"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="51"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:14" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A13" s="64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="D13" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="H13" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="65"/>
+      <c r="L13" s="66" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" s="72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A14" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="72"/>
+    </row>
+    <row r="15" spans="1:14" s="22" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A15" s="73"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="69"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="74" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="22" customFormat="1">
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="75"/>
+    </row>
+    <row r="17" spans="1:13" s="22" customFormat="1">
+      <c r="A17" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31" t="s">
+      <c r="E17" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="49"/>
+      <c r="L17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="22" customFormat="1">
+      <c r="A18" s="31"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="22" customFormat="1">
+      <c r="A19" s="31"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="62"/>
+    </row>
+    <row r="20" spans="1:13" s="22" customFormat="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="62"/>
+    </row>
+    <row r="21" spans="1:13" s="22" customFormat="1">
+      <c r="A21" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:13" s="22" customFormat="1">
+      <c r="A22" s="30"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="31"/>
-      <c r="L7" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A8" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A11" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="M11" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" s="26" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="K13" s="31"/>
-      <c r="L13" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="26" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A14" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="36"/>
-    </row>
-    <row r="15" spans="1:14" s="26" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A15" s="64"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="M15" s="34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="26" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="1:13" s="26" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A17" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="26" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A18" s="62" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="26" customFormat="1" ht="36.75" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="M19" s="35"/>
+      <c r="M22" s="53"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="G25" s="83"/>
+    </row>
+    <row r="39" spans="5:5">
+      <c r="E39" s="83"/>
     </row>
   </sheetData>
-  <mergeCells count="66">
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D5:D6"/>
+  <mergeCells count="68">
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="L18:L21"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1975,52 +2188,19 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="D17:D22"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
     <hyperlink ref="A1:N1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{BAD90D86-7311-49B0-A802-02D69BE204D5}"/>
@@ -2035,7 +2215,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -2062,84 +2242,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="50" t="str">
+      <c r="B2" s="44" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="46" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
-        <v>Objeto de dominio que contiene la informacion del consentimiento</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="53"/>
+        <v>Objeto de dominio que contiene la informacion base de los tipo de identificaion que tienen los clientes o el spa</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="42"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="45" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="45"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2149,52 +2329,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="48" t="s">
+      <c r="L4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="49" t="s">
+      <c r="M4" s="43" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="43" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="46" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="44" t="s">
+      <c r="K5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="39"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="33"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2207,117 +2387,105 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
-    </row>
-    <row r="7" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A7" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="H7" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I7" s="56"/>
-      <c r="J7" s="54" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="56"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-    </row>
-    <row r="8" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A8" s="58"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
-    </row>
-    <row r="9" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A9" s="60" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A7" s="58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="55"/>
+      <c r="J7" s="58" t="s">
+        <v>59</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A8" s="59"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="61"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-    </row>
-    <row r="10" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
+    <row r="11" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:14" s="26" customFormat="1" ht="47.25" customHeight="1">
+    <row r="12" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:14" s="26" customFormat="1" ht="24.75" customHeight="1">
+    <row r="13" spans="1:14" s="22" customFormat="1" ht="24.75" customHeight="1">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:14" s="26" customFormat="1" ht="24.75" customHeight="1">
+    <row r="14" spans="1:14" s="22" customFormat="1" ht="24.75" customHeight="1">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:14" s="26" customFormat="1" ht="24.75" customHeight="1">
+    <row r="15" spans="1:14" s="22" customFormat="1" ht="24.75" customHeight="1">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:14" s="26" customFormat="1" ht="24.75" customHeight="1">
+    <row r="16" spans="1:14" s="22" customFormat="1" ht="24.75" customHeight="1">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" s="26" customFormat="1" ht="48" customHeight="1">
+    <row r="17" spans="1:1" s="22" customFormat="1" ht="48" customHeight="1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" s="26" customFormat="1" ht="48" customHeight="1">
+    <row r="18" spans="1:1" s="22" customFormat="1" ht="48" customHeight="1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" s="26" customFormat="1" ht="48" customHeight="1">
+    <row r="19" spans="1:1" s="22" customFormat="1" ht="48" customHeight="1">
       <c r="A19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2334,6 +2502,18 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{A1BF5196-6B81-4A2B-9969-D82FF594EDD4}"/>
@@ -2349,7 +2529,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2368,61 +2548,61 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50" t="str">
+      <c r="B1" s="44" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>Genero</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="51"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="45"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="52" t="str">
+      <c r="B2" s="46" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
-        <v>Objeto de dominio que contiene la informacion de los genero de los clientes.</v>
-      </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="53"/>
-    </row>
-    <row r="3" spans="1:13" ht="38.25">
+        <v xml:space="preserve">Objeto de dominio que contiene la informacion de genero del cliente </v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="47"/>
+    </row>
+    <row r="3" spans="1:13" ht="25.5">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="42"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="45" t="s">
+      <c r="F3" s="48"/>
+      <c r="G3" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="45"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
@@ -2432,51 +2612,51 @@
       <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="49" t="s">
+      <c r="M3" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="43" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="46" t="s">
+      <c r="H4" s="37"/>
+      <c r="I4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="44" t="s">
+      <c r="K4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="43"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="33"/>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
@@ -2489,91 +2669,75 @@
       <c r="H5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="49"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="D6" s="54" t="s">
+      <c r="A6" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="I6" s="56"/>
-      <c r="J6" s="54" t="s">
-        <v>82</v>
-      </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
+      <c r="B6" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="55"/>
+      <c r="J6" s="58" t="s">
+        <v>66</v>
+      </c>
+      <c r="K6" s="55"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="58"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="57"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
@@ -2585,27 +2749,28 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -2749,32 +2914,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2792,6 +2947,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>

--- a/SpaOnline/EventStorming/Clientes - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Clientes - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDAA23BC-18A4-43BA-9099-81D2C7BB317D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2147335-5E45-4456-A066-0F4D0B32B39A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -296,9 +296,6 @@
     <t>No debe existir otro cliente con el mismo numero de identificacion</t>
   </si>
   <si>
-    <t>Debe de exisitir mas de un cliente con el mismo correo</t>
-  </si>
-  <si>
     <t>Comando que permite llevar a cabo la edicion de los datos que posee el cliente del spa</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>Tipo Identificacion</t>
+  </si>
+  <si>
+    <t>no Debe de exisitir mas de un cliente con el mismo correo</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -870,6 +870,32 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -882,19 +908,58 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -942,111 +1007,34 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1470,21 +1458,21 @@
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="17" t="s">
@@ -1501,44 +1489,44 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="78" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="76" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5" s="77" t="s">
+      <c r="D5" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30">
+      <c r="A6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="78" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30">
-      <c r="A6" s="76" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="79" t="s">
+      <c r="C6" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="79" t="s">
+      <c r="D6" s="33" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1562,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1590,84 +1578,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="str">
+      <c r="B2" s="67" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Cliente</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="69" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la informacion basica de los clientes del spa</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1677,52 +1665,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="66" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="71"/>
+      <c r="G5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1735,92 +1723,92 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="49"/>
+      <c r="L7" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A8" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A9" s="74"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="66" t="s">
-        <v>71</v>
-      </c>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="66" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A8" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="B8" s="69"/>
-      <c r="C8" s="69"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="65" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="67" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="66" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
-      <c r="M9" s="67" t="s">
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="29" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1828,32 +1816,32 @@
       <c r="A10" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="49" t="s">
+      <c r="C10" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="82" t="s">
+      <c r="E10" s="45" t="s">
         <v>85</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>84</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>46</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="49"/>
+      <c r="K10" s="45"/>
       <c r="L10" s="20" t="s">
         <v>68</v>
       </c>
@@ -1862,173 +1850,173 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="80"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="20" t="s">
         <v>42</v>
       </c>
       <c r="H11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="49" t="s">
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="M11" s="52" t="s">
+      <c r="M11" s="39" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A12" s="30"/>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="81"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" s="51"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="53"/>
+        <v>77</v>
+      </c>
+      <c r="I12" s="46"/>
+      <c r="J12" s="47"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="41"/>
     </row>
     <row r="13" spans="1:14" s="22" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A13" s="64" t="s">
+      <c r="A13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D13" s="65" t="s">
+      <c r="C13" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="65" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="65" t="s">
+      <c r="E13" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="F13" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65" t="s">
+      <c r="I13" s="49"/>
+      <c r="J13" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="65"/>
-      <c r="L13" s="66" t="s">
+      <c r="K13" s="49"/>
+      <c r="L13" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="M13" s="72" t="s">
+      <c r="M13" s="52" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="22" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="69"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="69"/>
-      <c r="L14" s="66" t="s">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="M14" s="72"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:14" s="22" customFormat="1" ht="24.75" customHeight="1">
       <c r="A15" s="73"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="65" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="69"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="65" t="s">
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="74" t="s">
+      <c r="M15" s="53" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="22" customFormat="1">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
-      <c r="M16" s="75"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="1:13" s="22" customFormat="1">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="D17" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="H17" s="63" t="s">
-        <v>80</v>
-      </c>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49" t="s">
+      <c r="H17" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="K17" s="49"/>
+      <c r="K17" s="45"/>
       <c r="L17" s="20" t="s">
         <v>68</v>
       </c>
@@ -2037,141 +2025,107 @@
       </c>
     </row>
     <row r="18" spans="1:13" s="22" customFormat="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="H18" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" s="51"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="49" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="M18" s="52" t="s">
+      <c r="M18" s="39" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="22" customFormat="1">
-      <c r="A19" s="31"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="62"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="46"/>
+      <c r="M19" s="40"/>
     </row>
     <row r="20" spans="1:13" s="22" customFormat="1">
-      <c r="A20" s="30"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
-      <c r="M20" s="62"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="40"/>
     </row>
     <row r="21" spans="1:13" s="22" customFormat="1">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="62"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="40"/>
     </row>
     <row r="22" spans="1:13" s="22" customFormat="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="50"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
       <c r="L22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="M22" s="53"/>
+      <c r="M22" s="41"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="G25" s="83"/>
+      <c r="G25" s="34"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="83"/>
+      <c r="E39" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="68">
-    <mergeCell ref="M18:M22"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="F17:F22"/>
-    <mergeCell ref="K17:K22"/>
-    <mergeCell ref="I17:I22"/>
-    <mergeCell ref="J17:J22"/>
-    <mergeCell ref="G18:G22"/>
-    <mergeCell ref="H18:H22"/>
-    <mergeCell ref="L18:L21"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -2188,14 +2142,48 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="J13:J16"/>
+    <mergeCell ref="K13:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="D13:D16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="I13:I16"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="M18:M22"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="F17:F22"/>
+    <mergeCell ref="K17:K22"/>
+    <mergeCell ref="I17:I22"/>
+    <mergeCell ref="J17:J22"/>
+    <mergeCell ref="G18:G22"/>
+    <mergeCell ref="H18:H22"/>
+    <mergeCell ref="L18:L21"/>
     <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
     <mergeCell ref="B17:B22"/>
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="D17:D22"/>
@@ -2242,84 +2230,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="44" t="str">
+      <c r="B2" s="67" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
         <v>TipoIdentificacion</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="45"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46" t="str">
+      <c r="B3" s="69" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la informacion base de los tipo de identificaion que tienen los clientes o el spa</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="47"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="36"/>
+      <c r="C4" s="59"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="62"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2329,52 +2317,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="42" t="s">
+      <c r="L4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="M4" s="66" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="71"/>
+      <c r="G5" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="37"/>
-      <c r="I5" s="40" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="41" t="s">
+      <c r="J5" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="38" t="s">
+      <c r="K5" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="33"/>
+      <c r="A6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="76"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2387,53 +2375,53 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="43"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="64"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="66"/>
     </row>
     <row r="7" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55" t="s">
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="55"/>
-      <c r="J7" s="58" t="s">
+      <c r="I7" s="81"/>
+      <c r="J7" s="80" t="s">
         <v>59</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="81"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
     </row>
     <row r="8" spans="1:14" s="22" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A8" s="59"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
     </row>
@@ -2441,16 +2429,16 @@
       <c r="A9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
       <c r="L9" s="23"/>
       <c r="M9" s="23"/>
     </row>
@@ -2486,6 +2474,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2502,18 +2502,6 @@
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="G7:G9"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="J7:J9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{A1BF5196-6B81-4A2B-9969-D82FF594EDD4}"/>
@@ -2548,61 +2536,61 @@
       <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="44" t="str">
+      <c r="B1" s="67" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>Genero</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="str">
+      <c r="B2" s="69" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v xml:space="preserve">Objeto de dominio que contiene la informacion de genero del cliente </v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="25.5">
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="36"/>
+      <c r="C3" s="59"/>
       <c r="D3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="48" t="s">
+      <c r="E3" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="39" t="s">
+      <c r="F3" s="71"/>
+      <c r="G3" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="39"/>
+      <c r="H3" s="62"/>
       <c r="I3" s="9" t="s">
         <v>14</v>
       </c>
@@ -2612,51 +2600,51 @@
       <c r="K3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="66" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="37"/>
-      <c r="I4" s="40" t="s">
+      <c r="H4" s="60"/>
+      <c r="I4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="41" t="s">
+      <c r="J4" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="38" t="s">
+      <c r="K4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="42"/>
-      <c r="M4" s="43"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="66"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="33"/>
+      <c r="A5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="11" t="s">
         <v>21</v>
       </c>
@@ -2669,53 +2657,53 @@
       <c r="H5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="64"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="66"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="80" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="D6" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55" t="s">
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="60" t="s">
+      <c r="H6" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="I6" s="55"/>
-      <c r="J6" s="58" t="s">
+      <c r="I6" s="81"/>
+      <c r="J6" s="80" t="s">
         <v>66</v>
       </c>
-      <c r="K6" s="55"/>
+      <c r="K6" s="81"/>
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="59"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
       <c r="L7" s="23"/>
       <c r="M7" s="23"/>
     </row>
@@ -2723,21 +2711,37 @@
       <c r="A8" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
       <c r="L8" s="23"/>
       <c r="M8" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="H6:H8"/>
+    <mergeCell ref="I6:I8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="C6:C8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="B2:M2"/>
@@ -2749,28 +2753,27 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="C6:C8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="H6:H8"/>
-    <mergeCell ref="I6:I8"/>
-    <mergeCell ref="J6:J8"/>
-    <mergeCell ref="K6:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101009649131083C14B4DA86A8CCE286EB917" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="33d994151d56ba12daba8e54dbe95711">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2e7b8f57-5761-4b68-bc8b-a5313b5a9473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4b2c88e9cfcedcae53c44b46a6fb09bd" ns2:_="">
     <xsd:import namespace="2e7b8f57-5761-4b68-bc8b-a5313b5a9473"/>
@@ -2914,22 +2917,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A52D198E-1C75-45AD-8A7E-B98F5C4409CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2947,31 +2960,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{86cab09b-e61a-4c01-96e7-67fc9e3d8cd5}" enabled="1" method="Standard" siteId="{bf1ce8b5-5d39-4bc5-ad6e-07b3e4d7d67a}" contentBits="8" removed="0"/>
